--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019년2학기/융합소프트웨어종합설계/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CA1FF4-7933-AC46-8AF1-BE1E04CDB919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EA7ED-FAA9-7542-99A6-055C01D4E332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -60,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 중간에 interrupt 걸린 시간 포함 작업시간. 10분 단위로 작성
@@ -74,6 +76,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 원래 Phase를 기술하지만, 우리는 관련된 Activity가 뭔지를 기술하도록 함. 성혜가 작성하는 Test Case 정도의 Granulity로 작성할 것</t>
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -133,6 +136,139 @@
   <si>
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
+  <si>
+    <t>이은무</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행계획서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Use case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +279,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -176,6 +312,24 @@
     <font>
       <sz val="8"/>
       <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -215,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,6 +406,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,7 +724,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -604,6 +763,9 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="20" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
       <c r="D4" s="4"/>
@@ -674,21 +836,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="13">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+    <row r="8" spans="1:11" ht="14">
+      <c r="A8" s="21">
+        <v>43726</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>120</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14">
+      <c r="A9" s="15">
+        <v>43730</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>180</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="13">
       <c r="A10" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Documents/2019:02/YoongSoJongSeol/ChemicalManagementApplication/PSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38EA7ED-FAA9-7542-99A6-055C01D4E332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF8815-1205-4753-AE11-2FD39A7C20EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18460" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="작성자명" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -137,10 +137,6 @@
     <t>강의주제 선정 및 프로젝트 수행계획서 작성</t>
   </si>
   <si>
-    <t>이은무</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -266,6 +262,169 @@
         <charset val="129"/>
       </rPr>
       <t>공부</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은무</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>화브리타임</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -279,7 +438,7 @@
     <numFmt numFmtId="177" formatCode="h:mm:ss\ am/pm"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,12 +482,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -369,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -406,11 +572,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -715,7 +884,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
@@ -724,18 +892,18 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" customWidth="1"/>
+    <col min="6" max="6" width="40.6328125" customWidth="1"/>
+    <col min="7" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" customHeight="1">
@@ -759,12 +927,14 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>12</v>
+      <c r="E3" s="22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
@@ -796,7 +966,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
+    <row r="6" spans="1:11" ht="13">
       <c r="A6" s="8">
         <v>43716</v>
       </c>
@@ -816,7 +986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13">
+    <row r="7" spans="1:11" ht="12.5">
       <c r="A7" s="8">
         <v>43716</v>
       </c>
@@ -836,8 +1006,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14">
-      <c r="A8" s="21">
+    <row r="8" spans="1:11" ht="13">
+      <c r="A8" s="20">
         <v>43726</v>
       </c>
       <c r="B8" s="16">
@@ -852,11 +1022,11 @@
       <c r="E8" s="17">
         <v>120</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14">
+      <c r="F8" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="13">
       <c r="A9" s="15">
         <v>43730</v>
       </c>
@@ -873,26 +1043,40 @@
         <v>180</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="13">
-      <c r="A11" s="15"/>
+      <c r="A11" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="11"/>
       <c r="E11" s="17"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:11" ht="13">
+    <row r="12" spans="1:11" ht="12.5">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -900,7 +1084,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:11" ht="13">
+    <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -916,7 +1100,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:11" ht="13">
+    <row r="15" spans="1:11" ht="12.5">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -924,7 +1108,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="13">
+    <row r="16" spans="1:11" ht="12.5">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -932,7 +1116,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="13">
+    <row r="17" spans="1:6" ht="12.5">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -940,7 +1124,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="14">
+    <row r="18" spans="1:6" ht="13">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -956,7 +1140,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="13">
+    <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -964,7 +1148,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="14">
+    <row r="21" spans="1:6" ht="13">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -972,7 +1156,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6" ht="13">
+    <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -988,7 +1172,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="13">
+    <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1012,7 +1196,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="13">
+    <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1020,7 +1204,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="13">
+    <row r="28" spans="1:6" ht="12.5">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1028,7 +1212,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="13">
+    <row r="29" spans="1:6" ht="12.5">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1036,7 +1220,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="13">
+    <row r="30" spans="1:6" ht="12.5">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1044,7 +1228,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="13">
+    <row r="31" spans="1:6" ht="12.5">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1052,7 +1236,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="13">
+    <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1060,7 +1244,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="13">
+    <row r="33" spans="1:6" ht="12.5">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1068,7 +1252,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="13">
+    <row r="34" spans="1:6" ht="12.5">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -1076,7 +1260,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="13">
+    <row r="35" spans="1:6" ht="12.5">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -1084,7 +1268,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="13">
+    <row r="36" spans="1:6" ht="12.5">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -1092,7 +1276,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="13">
+    <row r="37" spans="1:6" ht="12.5">
       <c r="A37" s="18"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1100,7 +1284,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="13">
+    <row r="38" spans="1:6" ht="12.5">
       <c r="A38" s="18"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -1373,9 +1557,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1491,9 +1675,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1609,9 +1793,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1727,9 +1911,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1845,9 +2029,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -1963,9 +2147,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2081,9 +2265,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2199,9 +2383,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2317,9 +2501,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2435,9 +2619,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2553,9 +2737,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2671,9 +2855,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2789,9 +2973,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -2907,9 +3091,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -3025,9 +3209,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="7.6640625" customWidth="1"/>
+    <col min="1" max="11" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF8815-1205-4753-AE11-2FD39A7C20EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C85C7-C6DD-445D-9B2E-C78A781700A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38C85C7-C6DD-445D-9B2E-C78A781700A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BBA0E-9EFF-4703-AF08-1610907D6954}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -425,6 +425,97 @@
         <charset val="129"/>
       </rPr>
       <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이어그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -892,7 +983,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1070,11 +1161,21 @@
       <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>150</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.5">
       <c r="A12" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BBA0E-9EFF-4703-AF08-1610907D6954}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B32F6-A9FB-42FA-9D26-0C0E7D9583C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -516,6 +516,87 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -983,7 +1064,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1177,13 +1258,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+    <row r="12" spans="1:11" ht="13">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>180</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="12.5">
       <c r="A13" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7B32F6-A9FB-42FA-9D26-0C0E7D9583C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE48A95-5B22-4D96-B8DE-0D5325A954A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1284,7 +1284,9 @@
       <c r="C13" s="16"/>
       <c r="D13" s="11"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE48A95-5B22-4D96-B8DE-0D5325A954A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB808F44-CD1D-4B0D-91D0-1A8EE756414C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -553,7 +553,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Use case specification </t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -562,7 +562,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>토론</t>
+      <t>월</t>
     </r>
     <r>
       <rPr>
@@ -570,7 +570,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 7</t>
     </r>
     <r>
       <rPr>
@@ -579,15 +579,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
     </r>
     <r>
       <rPr>
@@ -596,7 +594,124 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>토론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1064,7 +1179,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1266,26 +1381,36 @@
         <v>0.875</v>
       </c>
       <c r="C12" s="16">
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="17">
+        <v>120</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
         <v>180</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18">
-        <v>1</v>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB808F44-CD1D-4B0D-91D0-1A8EE756414C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E5472-0558-492B-AE65-F1C49D11E2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -712,6 +712,87 @@
         <charset val="129"/>
       </rPr>
       <t>차</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1179,7 +1260,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1414,12 +1495,24 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="A14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>120</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="12.5">
       <c r="A15" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3E5472-0558-492B-AE65-F1C49D11E2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42981C-0E21-4A6A-986C-B20A63EF86E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1520,7 +1520,9 @@
       <c r="C15" s="16"/>
       <c r="D15" s="11"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12.5">
       <c r="A16" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B42981C-0E21-4A6A-986C-B20A63EF86E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE74FB-2A3C-4C04-9B55-C2EA36CD1E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -795,6 +795,120 @@
       <t>설계</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토론</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1260,7 +1374,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1514,14 +1628,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18">
-        <v>1</v>
+    <row r="15" spans="1:11" ht="13">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>120</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.5">

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE74FB-2A3C-4C04-9B55-C2EA36CD1E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221487F1-C72A-4E30-9E1B-68B27A944486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -909,6 +909,134 @@
       </rPr>
       <t>토론</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial data set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use case specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마지막</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1374,7 +1502,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1648,21 +1776,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+    <row r="16" spans="1:11" ht="13">
+      <c r="A16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>180</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>120</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="13">
       <c r="A18" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221487F1-C72A-4E30-9E1B-68B27A944486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD829B-12BA-4803-A9D0-837E4AE5F7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1036,6 +1036,42 @@
       </rPr>
       <t>완성</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class Design 공부</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1502,7 +1538,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1817,12 +1853,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="13">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>60</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD829B-12BA-4803-A9D0-837E4AE5F7D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA2B93-31EA-4787-9919-362237A139A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1072,6 +1072,53 @@
   </si>
   <si>
     <t>Class Design 공부</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Architecture Documentation 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1873,12 +1920,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>120</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="12.5">
       <c r="A20" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA2B93-31EA-4787-9919-362237A139A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09D7C8-4B9D-4024-9CED-07714CCB97EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1118,6 +1118,84 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1584,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -1939,13 +2017,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.5">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+    <row r="20" spans="1:6" ht="13">
+      <c r="A20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>300</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="13">
       <c r="A21" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09D7C8-4B9D-4024-9CED-07714CCB97EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F2B3F-FD1F-4901-802E-40386D24FB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1197,6 +1197,42 @@
       </rPr>
       <t>시작</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 작업</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1663,7 +1699,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2038,12 +2074,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="13">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>240</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="12.5">
       <c r="A22" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F2B3F-FD1F-4901-802E-40386D24FB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C70BC8-364D-4850-892B-E05EAFA9C6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1233,6 +1233,67 @@
   </si>
   <si>
     <t>코딩 작업</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1698,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2093,13 +2154,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+    <row r="22" spans="1:6" ht="13">
+      <c r="A22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>300</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C70BC8-364D-4850-892B-E05EAFA9C6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687FB66-03F7-4262-9AE1-64D1A455D29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1255,6 +1255,67 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
     </r>
     <r>
       <rPr>
@@ -1760,7 +1821,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2175,12 +2236,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="17">
+        <v>240</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="12.5">
       <c r="A24" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4687FB66-03F7-4262-9AE1-64D1A455D29A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4814513A-B2C4-461A-BBEB-C356801E9D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1355,6 +1355,42 @@
       </rPr>
       <t>작업</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 작업</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1464,7 +1500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1509,6 +1545,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1820,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2245,7 +2282,9 @@
       <c r="C23" s="16">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
       <c r="E23" s="17">
         <v>240</v>
       </c>
@@ -2253,13 +2292,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.5">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+    <row r="24" spans="1:6" ht="13">
+      <c r="A24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>420</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4814513A-B2C4-461A-BBEB-C356801E9D03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEB720-7C76-4B50-81BE-052DD0758B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1391,6 +1391,67 @@
   </si>
   <si>
     <t>코딩 작업</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1857,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2313,12 +2374,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>240</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEB720-7C76-4B50-81BE-052DD0758B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CA2B93-31EA-4787-9919-362237A139A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1118,339 +1118,6 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩 작업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩 작업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1561,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1606,7 +1273,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1918,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2273,125 +1939,53 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13">
-      <c r="A20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>300</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>37</v>
-      </c>
+    <row r="20" spans="1:6" ht="12.5">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="13">
-      <c r="A21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>240</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13">
-      <c r="A22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="16">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>300</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>240</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13">
-      <c r="A24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>420</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.5">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>240</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BEB720-7C76-4B50-81BE-052DD0758B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46BA31E-D3FA-4E38-A59F-9F5CFE2D4D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1451,6 +1451,67 @@
         <charset val="129"/>
       </rPr>
       <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1919,7 +1980,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2394,12 +2455,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>420</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.5">
       <c r="A27" s="15"/>

--- a/PSP/20140909 이은무 PSP.xlsx
+++ b/PSP/20140909 이은무 PSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\무\Desktop\git\ChemicalManagementApplication\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46BA31E-D3FA-4E38-A59F-9F5CFE2D4D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDCF27F-36A4-423D-9E7E-0440AB02574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1140,6 +1140,70 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Software Architecture Documentation 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 16</t>
     </r>
     <r>
@@ -1155,6 +1219,86 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Front End </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> React </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Dotum"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
@@ -1188,15 +1332,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시작</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1218,7 +1353,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 20</t>
+      <t xml:space="preserve"> 23</t>
     </r>
     <r>
       <rPr>
@@ -1232,7 +1367,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>코딩 작업</t>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1254,7 +1417,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 23</t>
+      <t xml:space="preserve"> 30</t>
     </r>
     <r>
       <rPr>
@@ -1269,6 +1432,166 @@
   </si>
   <si>
     <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="돋움"/>
@@ -1294,11 +1617,62 @@
       </rPr>
       <t>작업</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + Document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞추어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보기</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>11</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -1315,7 +1689,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 26</t>
+      <t xml:space="preserve"> 9</t>
     </r>
     <r>
       <rPr>
@@ -1336,7 +1710,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>코딩</t>
+      <t>발표</t>
     </r>
     <r>
       <rPr>
@@ -1353,55 +1727,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작업</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩 작업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
+      <t>준비</t>
     </r>
     <r>
       <rPr>
@@ -1418,83 +1744,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작업</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코딩</t>
+      <t>및</t>
     </r>
     <r>
       <rPr>
@@ -1511,7 +1761,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작업</t>
+      <t>마무리</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1622,7 +1872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1667,7 +1917,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1979,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -2322,13 +2571,13 @@
         <v>0.75</v>
       </c>
       <c r="C19" s="16">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="17">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>35</v>
@@ -2339,10 +2588,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="16">
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="C20" s="16">
-        <v>0.75</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -2350,7 +2599,7 @@
       <c r="E20" s="17">
         <v>300</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2359,18 +2608,18 @@
         <v>38</v>
       </c>
       <c r="B21" s="16">
-        <v>0.75</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C21" s="16">
-        <v>0.91666666666666663</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="17">
-        <v>240</v>
-      </c>
-      <c r="F21" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2379,16 +2628,16 @@
         <v>40</v>
       </c>
       <c r="B22" s="16">
-        <v>0.54166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C22" s="16">
-        <v>0.75</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="17">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>41</v>
@@ -2399,120 +2648,180 @@
         <v>42</v>
       </c>
       <c r="B23" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="16">
         <v>0.75</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.91666666666666663</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13">
       <c r="A24" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="16">
-        <v>0.79166666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="17">
-        <v>420</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>45</v>
+        <v>240</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C25" s="16">
         <v>0.75</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0.91666666666666663</v>
       </c>
       <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="17">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="16">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C26" s="16">
-        <v>0.79166666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="17">
+        <v>180</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13">
+      <c r="A27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>240</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13">
+      <c r="A28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>300</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13">
+      <c r="A29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
         <v>420</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F29" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13">
+      <c r="A30" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="B30" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>600</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13">
+      <c r="A31" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>300</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="12.5">
       <c r="A32" s="15"/>
